--- a/biology/Botanique/Roseraie_de_Montevideo/Roseraie_de_Montevideo.xlsx
+++ b/biology/Botanique/Roseraie_de_Montevideo/Roseraie_de_Montevideo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La roseraie municipale du Prado (Rosaleda del Prado), située à Montevideo en Uruguay est une roseraie classique typique.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été dessinée et plantée en 1910 par le Français Charles Racine.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle présente, autour d'un bassin, vingt colonnes de pierre soutenant des rosiers grimpants, puis un cercle de vingt parterres de rosiers buissons et tiges, le tout entouré de pergolas recouvertes de roses grimpantes parfumées.
-Les variétés sont nombreuses mais on peut remarquer Rosa banskaiae 'Alba', ou 'Souvenir de Georges Pernet'[1].
+Les variétés sont nombreuses mais on peut remarquer Rosa banskaiae 'Alba', ou 'Souvenir de Georges Pernet'.
 </t>
         </is>
       </c>
